--- a/data/boolean-50PC.xlsx
+++ b/data/boolean-50PC.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -808,16 +808,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" t="n">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -1004,13 +1004,13 @@
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -1104,46 +1104,46 @@
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>1</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
         <v>1</v>
@@ -1152,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1167,52 +1167,52 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
         <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1231,10 +1231,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1291,13 +1291,13 @@
         <v>1</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
         <v>1</v>
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
@@ -1333,10 +1333,10 @@
         <v>1</v>
       </c>
       <c r="AM6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
         <v>1</v>
@@ -1345,19 +1345,19 @@
         <v>1</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV6" t="n">
         <v>1</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1454,16 +1454,16 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
@@ -1484,13 +1484,13 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -1620,13 +1620,13 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
@@ -1656,10 +1656,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
@@ -1708,31 +1708,31 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1744,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         <v>1</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
         <v>1</v>
@@ -1786,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" t="n">
         <v>1</v>
@@ -1801,19 +1801,19 @@
         <v>1</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9" t="n">
         <v>1</v>
       </c>
       <c r="AP9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
         <v>1</v>
@@ -1822,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -1831,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="AV9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
         <v>1</v>
@@ -1840,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1853,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
